--- a/Sales performance projectt.xlsx
+++ b/Sales performance projectt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAFINDI\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71134F7-DF79-4874-A711-FBD59D04BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10000001_{1FA67F32-623F-4519-A375-DAC1CF3632D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{BD055432-6A30-4F6A-A394-5933E141E820}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3358" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Ada</t>
-  </si>
-  <si>
-    <t>Sum of Revenue</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -195,7 +192,16 @@
     <t>Top Sales Rep</t>
   </si>
   <si>
-    <t>2023 Sales &amp; Revenue Dashboard</t>
+    <t>Revenue by Region</t>
+  </si>
+  <si>
+    <t>Revenue by Month</t>
+  </si>
+  <si>
+    <t>Revenue by Product</t>
+  </si>
+  <si>
+    <t>Revenue by Sales rep</t>
   </si>
 </sst>
 </file>
@@ -336,7 +342,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -838,37 +865,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NG"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -916,7 +912,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1100,11 +1095,11 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1156,9 +1151,8 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1173,18 +1167,58 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'Pivot tables'!$A$4:$A$8</c:f>
@@ -1226,7 +1260,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9B84-4CCB-B4CF-275B3790AEDA}"/>
@@ -1240,118 +1273,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="558500191"/>
-        <c:axId val="558498751"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="558500191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NG"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="558498751"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="558498751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NG"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="558500191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1646,11 +1571,11 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1714,7 +1639,8 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1732,29 +1658,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Pivot tables'!$A$12:$A$16</c:f>
@@ -1796,7 +1708,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D939-4D6C-9ED1-DCED8D489D8A}"/>
@@ -1811,11 +1722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
         <c:axId val="558483391"/>
         <c:axId val="558496351"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="558483391"/>
         <c:scaling>
@@ -2193,11 +2104,11 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2249,8 +2160,9 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2267,17 +2179,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Pivot tables'!$A$19:$A$25</c:f>
@@ -2331,7 +2241,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-68B8-4814-8B75-4950E023A156}"/>
@@ -2346,10 +2255,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="558487231"/>
         <c:axId val="558499231"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="558487231"/>
         <c:scaling>
@@ -4771,16 +4680,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502209</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74341</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>162622</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>56697</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369093</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4810,15 +4719,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>547688</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4847,16 +4756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>509522</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545241</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369094</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4885,16 +4794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>620952</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>130967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101644</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4923,19 +4832,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>96002</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81323</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>226971</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>549153</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22679</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>680122</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10772</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Region">
@@ -4958,7 +4867,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4968,8 +4877,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11843502" y="3653198"/>
-              <a:ext cx="1813865" cy="1574213"/>
+              <a:off x="13382677" y="2994151"/>
+              <a:ext cx="1820269" cy="1555003"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5001,19 +4910,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>916028</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>116447</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>296903</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Sales Rep">
@@ -5036,7 +4945,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5046,8 +4955,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1596385" y="3280108"/>
-              <a:ext cx="1623973" cy="1924624"/>
+              <a:off x="14136168" y="1130581"/>
+              <a:ext cx="1427401" cy="1829872"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5079,19 +4988,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>509472</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24626</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438035</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15101</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>205602</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146844</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Product">
@@ -5114,7 +5023,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5124,8 +5033,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7902686" y="3392394"/>
-              <a:ext cx="1818844" cy="1562874"/>
+              <a:off x="11543064" y="2937454"/>
+              <a:ext cx="1818244" cy="1546066"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5157,19 +5066,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>172612</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>140785</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220237</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>642357</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>186087</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Revenue">
@@ -5192,7 +5101,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5202,8 +5111,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9879041" y="3304446"/>
-              <a:ext cx="1830459" cy="2902802"/>
+              <a:off x="12692384" y="1121288"/>
+              <a:ext cx="1432631" cy="1827259"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5235,19 +5144,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>84287</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45229</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>405756</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>554033</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90531</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226218</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30999</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Months (Date)">
@@ -5270,7 +5179,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5280,8 +5189,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11831787" y="759604"/>
-              <a:ext cx="1830460" cy="2902802"/>
+              <a:off x="11510785" y="1109382"/>
+              <a:ext cx="1187580" cy="1846352"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5309,6 +5218,423 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>726282</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>428624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9223500-82E2-7E17-1B60-BBC27660E333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3833812" y="11905"/>
+          <a:ext cx="5810251" cy="821532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2023 Sales &amp; Revenue Dashboard</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tracking Revenue, Units Sold, and Growth%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-NG" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$B$5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Flowchart: Alternate Process 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D338817-F4BF-4E76-DFDB-8E3C4F965E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845344" y="1321594"/>
+          <a:ext cx="1059655" cy="333376"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{1225EEB0-ADD4-45A4-B232-E9DB662DB63C}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t> $5,816,300 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-NG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$D$5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Flowchart: Alternate Process 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531270F7-0A7D-430A-A515-7AFAF05EB491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2890839" y="1331120"/>
+          <a:ext cx="895349" cy="335756"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{5BB7A48B-0CFC-42C6-AE2B-37C8C61558E4}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>11206</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-NG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>197644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$F$5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Flowchart: Alternate Process 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47D196F-326C-43A9-92D0-DC4D1D5B0144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4233862" y="1304925"/>
+          <a:ext cx="850106" cy="373856"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{1FF0EDB0-01FB-448D-A20F-A7793244EF54}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t> $519.03 </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-NG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$H$5">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Flowchart: Alternate Process 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{761AC4D5-7A0D-436E-A081-C33CBE85645F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6196012" y="1302543"/>
+          <a:ext cx="828675" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{0660FAB7-A4BA-4983-8EAA-76658E10EE61}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow"/>
+            </a:rPr>
+            <a:t>-14%</a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-NG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15702,7 +16028,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01040EB3-F9AA-4733-AAE5-3ED0B7B65456}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Region">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{01040EB3-F9AA-4733-AAE5-3ED0B7B65456}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" rowHeaderCaption="Region">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -16195,7 +16521,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Revenue by Region" fld="6" baseField="1" baseItem="0" numFmtId="165"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="6" format="2" series="1">
@@ -16221,7 +16547,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B65351A-F527-423D-A74C-D5E06D293575}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Sales Rep">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8B65351A-F527-423D-A74C-D5E06D293575}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Sales Rep">
   <location ref="A18:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -16729,7 +17055,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Revenue by Sales rep" fld="6" baseField="2" baseItem="2" numFmtId="165"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="6" format="2" series="1">
@@ -16755,7 +17081,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D1F3F1-FBD7-4EE4-9421-51197208C0BB}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Month">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71D1F3F1-FBD7-4EE4-9421-51197208C0BB}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Month">
   <location ref="D3:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -17272,7 +17598,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Revenue by Month" fld="6" baseField="7" baseItem="1" numFmtId="165"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="6" format="2" series="1">
@@ -17298,7 +17624,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC31518B-C7D6-4D1E-A6EF-4AEDAC1C1A4E}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" rowHeaderCaption="Product">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC31518B-C7D6-4D1E-A6EF-4AEDAC1C1A4E}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Product">
   <location ref="A11:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0">
@@ -17800,7 +18126,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Revenue" fld="6" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Revenue by Product" fld="6" baseField="3" baseItem="1" numFmtId="165"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="6" format="2" series="1">
@@ -18000,7 +18326,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Region" xr10:uid="{6B6F949C-8A98-4358-B695-6B21E08CA916}" cache="Slicer_Region" caption="Region" rowHeight="273050"/>
-  <slicer name="Sales Rep" xr10:uid="{750C7143-47DE-40D3-912A-A4BE95DCCBFD}" cache="Slicer_Sales_Rep" caption="Sales Rep" rowHeight="273050"/>
+  <slicer name="Sales Rep" xr10:uid="{750C7143-47DE-40D3-912A-A4BE95DCCBFD}" cache="Slicer_Sales_Rep" caption="Sales Rep" startItem="1" rowHeight="273050"/>
   <slicer name="Product" xr10:uid="{CBEE7B36-8DA8-4B44-B0D7-D3CA49986F8C}" cache="Slicer_Product" caption="Product" rowHeight="273050"/>
   <slicer name="Revenue" xr10:uid="{C56CD55D-68E8-4C9B-B350-E633FF7AA837}" cache="Slicer_Revenue" caption="Revenue" rowHeight="273050"/>
   <slicer name="Months (Date)" xr10:uid="{78BB40BE-CAC0-45D8-A59B-04AE7C4A784D}" cache="Slicer_Months__Date" caption="Months (Date)" startItem="4" rowHeight="273050"/>
@@ -43674,15 +44000,15 @@
   <dimension ref="A3:J25"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.25" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="14" max="14" width="15.125" customWidth="1"/>
@@ -43693,13 +44019,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -43710,7 +44036,7 @@
         <v>1585700</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7">
         <v>532700</v>
@@ -43724,7 +44050,7 @@
         <v>1559800</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="7">
         <v>460100</v>
@@ -43738,7 +44064,7 @@
         <v>1426000</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7">
         <v>519000</v>
@@ -43752,7 +44078,7 @@
         <v>1244800</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7">
         <v>523300</v>
@@ -43760,13 +44086,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7">
         <v>5816300</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7">
         <v>548700</v>
@@ -43774,7 +44100,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7">
         <v>387700</v>
@@ -43782,7 +44108,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7">
         <v>448800</v>
@@ -43793,10 +44119,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7">
         <v>468900</v>
@@ -43810,7 +44136,7 @@
         <v>2597000</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7">
         <v>416000</v>
@@ -43824,7 +44150,7 @@
         <v>1662600</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7">
         <v>456800</v>
@@ -43838,17 +44164,17 @@
         <v>1297200</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="7">
         <v>501100</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="10"/>
     </row>
@@ -43860,7 +44186,7 @@
         <v>259500</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7">
         <v>553200</v>
@@ -43876,13 +44202,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="7">
         <v>5816300</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7">
         <v>5816300</v>
@@ -43890,10 +44216,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="J17" s="10"/>
     </row>
@@ -43902,7 +44228,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G18" s="5">
         <f>G15/I15</f>
@@ -43963,7 +44289,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7">
         <v>5816300</v>
@@ -43985,10 +44311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBCA85D-D13D-43EC-87C0-CB2C31567C22}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B3:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44000,56 +44326,80 @@
     <col min="12" max="12" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="16" t="s">
+    <row r="3" spans="2:12" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="2:12" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
+    </row>
+    <row r="5" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <f>'Pivot tables'!G15</f>
         <v>5816300</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <f>'Pivot tables'!I15</f>
         <v>11206</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F5" s="13">
         <f>'Pivot tables'!G18</f>
         <v>519.03444583258965</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H5" s="14">
         <f>'Pivot tables'!I18</f>
         <v>-0.13628684062324009</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
